--- a/data/trans_orig/P14A29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72052768-1000-4663-B7A5-EBA6827EE65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB487EF2-0E94-4475-97AB-728B65E8ABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A460F16D-AE09-42E4-925D-334B9659F7AE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B27CE030-5221-43E6-9F62-B331CAA6604F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="138">
   <si>
     <t>Población que recibe medicación o terapia por osteoporosis en 2012 (Tasa respuesta: 2,07%)</t>
   </si>
@@ -117,13 +117,13 @@
     <t>92,91%</t>
   </si>
   <si>
-    <t>63,65%</t>
+    <t>63,64%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>65,94%</t>
+    <t>66,46%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -132,13 +132,13 @@
     <t>7,09%</t>
   </si>
   <si>
-    <t>36,35%</t>
+    <t>36,36%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>34,06%</t>
+    <t>33,54%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -147,37 +147,37 @@
     <t>83,38%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -189,19 +189,19 @@
     <t>86,65%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
   </si>
   <si>
     <t>75,99%</t>
@@ -210,67 +210,67 @@
     <t>13,35%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>10,44%</t>
+    <t>9,98%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>89,56%</t>
+    <t>90,02%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -285,7 +285,7 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>49,1%</t>
@@ -294,67 +294,67 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>80,1%</t>
+    <t>80,16%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>27,16%</t>
+    <t>27,26%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>43,17%</t>
+    <t>36,68%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>72,84%</t>
+    <t>72,74%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>56,83%</t>
+    <t>63,32%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
   </si>
   <si>
     <t>87,54%</t>
@@ -366,19 +366,19 @@
     <t>83,63%</t>
   </si>
   <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>12,46%</t>
@@ -390,61 +390,67 @@
     <t>16,37%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>62,87%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,84%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>37,13%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>25,16%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
 </sst>
 </file>
@@ -856,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D283CD-84FB-49DB-B3E5-03BACE06987F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1831E3-C897-4EEC-AADC-8C0D2448E398}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2045,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC27BB7-0FCB-42D6-98FB-8F8706074EAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA43EC2F-E33F-4000-9A4E-19350340774D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3105,7 @@
         <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3120,13 @@
         <v>802</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -3129,13 +3135,13 @@
         <v>22598</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -3144,13 +3150,13 @@
         <v>23400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A29-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB487EF2-0E94-4475-97AB-728B65E8ABC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{539CFCB0-4CE6-4690-98D0-387E7DBE0110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B27CE030-5221-43E6-9F62-B331CAA6604F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D886F207-EF2B-4AF0-B327-25CCA1240D42}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -117,13 +117,13 @@
     <t>92,91%</t>
   </si>
   <si>
-    <t>63,64%</t>
+    <t>63,6%</t>
   </si>
   <si>
     <t>93,39%</t>
   </si>
   <si>
-    <t>66,46%</t>
+    <t>72,85%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -132,13 +132,13 @@
     <t>7,09%</t>
   </si>
   <si>
-    <t>36,36%</t>
+    <t>36,4%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>33,54%</t>
+    <t>27,15%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -147,37 +147,37 @@
     <t>83,38%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>16,62%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>16,16%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -189,19 +189,19 @@
     <t>86,65%</t>
   </si>
   <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
   </si>
   <si>
     <t>75,99%</t>
@@ -210,73 +210,73 @@
     <t>13,35%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>9,98%</t>
+    <t>10,49%</t>
   </si>
   <si>
     <t>87,06%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>85,37%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>90,02%</t>
+    <t>89,51%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>14,63%</t>
   </si>
   <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por osteoporosis en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población que recibe medicación o terapia por osteoporosis en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>50,9%</t>
@@ -285,7 +285,7 @@
     <t>60,58%</t>
   </si>
   <si>
-    <t>19,84%</t>
+    <t>19,9%</t>
   </si>
   <si>
     <t>49,1%</t>
@@ -294,163 +294,163 @@
     <t>39,42%</t>
   </si>
   <si>
-    <t>80,16%</t>
+    <t>80,1%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>27,26%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>36,68%</t>
+    <t>42,9%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>72,74%</t>
+    <t>72,81%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>63,32%</t>
+    <t>57,1%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
   </si>
   <si>
     <t>87,54%</t>
   </si>
   <si>
-    <t>44,24%</t>
+    <t>43,86%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
   </si>
   <si>
     <t>83,9%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>55,76%</t>
+    <t>56,14%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>16,1%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>65,76%</t>
+    <t>62,41%</t>
   </si>
   <si>
     <t>81,5%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>82,53%</t>
   </si>
   <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>34,24%</t>
+    <t>37,59%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1831E3-C897-4EEC-AADC-8C0D2448E398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B224D9AF-CDC7-4D9C-B6F8-62E5890A2ECC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA43EC2F-E33F-4000-9A4E-19350340774D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB7074-7DC7-451D-9D32-10B47658751A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
